--- a/src/main/resources/TestData/com/nonobank/apps/testcase/nonobankge/withdraw/Withdraw.xlsx
+++ b/src/main/resources/TestData/com/nonobank/apps/testcase/nonobankge/withdraw/Withdraw.xlsx
@@ -5,7 +5,7 @@
   <workbookPr filterPrivacy="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/app_nonobank_ui_testing/src/main/resources/TestData/com/nonobank/apps/testcase/nonobankge/bankCard/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/app_nonobank_ui_testing/src/main/resources/TestData/com/nonobank/apps/testcase/nonobankge/withdraw/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
   <si>
     <t>flag</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -124,6 +124,19 @@
     <t>绑卡成功</t>
     <rPh sb="1" eb="2">
       <t>ch'gong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testcaseName</t>
+  </si>
+  <si>
+    <t>testcaseDescription</t>
+  </si>
+  <si>
+    <t>提现</t>
+    <rPh sb="0" eb="1">
+      <t>ti'x</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -475,95 +488,109 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="31.1640625" customWidth="1"/>
-    <col min="3" max="3" width="17" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" customWidth="1"/>
-    <col min="5" max="5" width="10.5" customWidth="1"/>
-    <col min="6" max="6" width="13.1640625" customWidth="1"/>
-    <col min="7" max="7" width="45.33203125" customWidth="1"/>
-    <col min="8" max="8" width="14.1640625" customWidth="1"/>
-    <col min="9" max="9" width="12.1640625" customWidth="1"/>
-    <col min="10" max="10" width="15.1640625" customWidth="1"/>
+    <col min="2" max="2" width="14.1640625" customWidth="1"/>
+    <col min="3" max="3" width="21.33203125" customWidth="1"/>
+    <col min="4" max="4" width="31.1640625" customWidth="1"/>
+    <col min="5" max="5" width="17" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" customWidth="1"/>
+    <col min="7" max="7" width="10.5" customWidth="1"/>
+    <col min="8" max="8" width="13.1640625" customWidth="1"/>
+    <col min="9" max="9" width="45.33203125" customWidth="1"/>
+    <col min="10" max="10" width="14.1640625" customWidth="1"/>
+    <col min="11" max="11" width="12.1640625" customWidth="1"/>
+    <col min="12" max="12" width="15.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" t="s">
         <v>7</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>11</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>13</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>14</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>15</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>16</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>17</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>18</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>2</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="L2" t="s">
+      <c r="N2" t="s">
         <v>6</v>
       </c>
     </row>

--- a/src/main/resources/TestData/com/nonobank/apps/testcase/nonobankge/withdraw/Withdraw.xlsx
+++ b/src/main/resources/TestData/com/nonobank/apps/testcase/nonobankge/withdraw/Withdraw.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14440"/>
+    <workbookView xWindow="380" yWindow="6100" windowWidth="25600" windowHeight="14440"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="39">
   <si>
     <t>flag</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -84,47 +84,17 @@
     <t>smsCode</t>
   </si>
   <si>
-    <t>bankName</t>
-  </si>
-  <si>
     <t>bankCardNum</t>
   </si>
   <si>
     <t>bankMobile</t>
   </si>
   <si>
-    <t>bankSmsCode</t>
-  </si>
-  <si>
-    <t>bankLimitPrompt</t>
-  </si>
-  <si>
-    <t>中国工商银行</t>
-    <rPh sb="1" eb="2">
-      <t>gong'sh</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>yin'h</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>${BankCardUtils.getUnUsedBankCard(622202100112)}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>18663049557</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0615</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>绑卡成功</t>
-    <rPh sb="1" eb="2">
-      <t>ch'gong</t>
-    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -138,6 +108,67 @@
     <rPh sb="0" eb="1">
       <t>ti'x</t>
     </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>blackBox</t>
+  </si>
+  <si>
+    <t>idCard</t>
+  </si>
+  <si>
+    <t>realName</t>
+  </si>
+  <si>
+    <t>bankCode</t>
+  </si>
+  <si>
+    <t>ICBC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>韩军超</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bank_validCode</t>
+  </si>
+  <si>
+    <t>rechargeMoney</t>
+  </si>
+  <si>
+    <t>payPassword</t>
+  </si>
+  <si>
+    <t>payPassword_second</t>
+  </si>
+  <si>
+    <t>recharge_SmsCode</t>
+  </si>
+  <si>
+    <t>withdrawalAmount</t>
+  </si>
+  <si>
+    <t>061509</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>it7891234</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>environment</t>
+  </si>
+  <si>
+    <t>sit</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -488,109 +519,158 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="14.1640625" customWidth="1"/>
     <col min="3" max="3" width="21.33203125" customWidth="1"/>
-    <col min="4" max="4" width="31.1640625" customWidth="1"/>
-    <col min="5" max="5" width="17" customWidth="1"/>
-    <col min="6" max="6" width="10.6640625" customWidth="1"/>
-    <col min="7" max="7" width="10.5" customWidth="1"/>
-    <col min="8" max="8" width="13.1640625" customWidth="1"/>
-    <col min="9" max="9" width="45.33203125" customWidth="1"/>
-    <col min="10" max="10" width="14.1640625" customWidth="1"/>
-    <col min="11" max="11" width="12.1640625" customWidth="1"/>
-    <col min="12" max="12" width="15.1640625" customWidth="1"/>
+    <col min="4" max="4" width="13.5" customWidth="1"/>
+    <col min="5" max="5" width="31.1640625" customWidth="1"/>
+    <col min="6" max="6" width="17" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" customWidth="1"/>
+    <col min="8" max="8" width="10.5" customWidth="1"/>
+    <col min="9" max="11" width="13.5" customWidth="1"/>
+    <col min="12" max="12" width="44.6640625" customWidth="1"/>
+    <col min="13" max="14" width="13.1640625" customWidth="1"/>
+    <col min="15" max="17" width="14.1640625" customWidth="1"/>
+    <col min="18" max="18" width="17.1640625" customWidth="1"/>
+    <col min="19" max="19" width="19.1640625" customWidth="1"/>
+    <col min="20" max="20" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" t="s">
         <v>24</v>
       </c>
-      <c r="C1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="N1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O1" t="s">
         <v>15</v>
       </c>
-      <c r="J1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L1" t="s">
-        <v>18</v>
-      </c>
-      <c r="M1" t="s">
+      <c r="P1" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>29</v>
+      </c>
+      <c r="R1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T1" t="s">
+        <v>32</v>
+      </c>
+      <c r="U1" t="s">
         <v>2</v>
       </c>
-      <c r="N1" t="s">
+      <c r="V1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="I2" s="1">
+        <v>9877</v>
+      </c>
+      <c r="J2" s="1"/>
       <c r="K2" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="N2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N2" s="1">
+        <v>615</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V2" t="s">
         <v>6</v>
       </c>
     </row>

--- a/src/main/resources/TestData/com/nonobank/apps/testcase/nonobankge/withdraw/Withdraw.xlsx
+++ b/src/main/resources/TestData/com/nonobank/apps/testcase/nonobankge/withdraw/Withdraw.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="380" yWindow="6100" windowWidth="25600" windowHeight="14440"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14440"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
@@ -149,10 +149,6 @@
     <t>withdrawalAmount</t>
   </si>
   <si>
-    <t>061509</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>it7891234</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -169,6 +165,10 @@
   </si>
   <si>
     <t>sit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06150911</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -521,8 +521,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -554,7 +554,7 @@
         <v>19</v>
       </c>
       <c r="D1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E1" t="s">
         <v>7</v>
@@ -622,7 +622,7 @@
         <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>10</v>
@@ -656,19 +656,19 @@
         <v>17</v>
       </c>
       <c r="P2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="T2" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="V2" t="s">
         <v>6</v>

--- a/src/main/resources/TestData/com/nonobank/apps/testcase/nonobankge/withdraw/Withdraw.xlsx
+++ b/src/main/resources/TestData/com/nonobank/apps/testcase/nonobankge/withdraw/Withdraw.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14440"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14440"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="42">
   <si>
     <t>flag</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -77,10 +77,6 @@
     <t>pictureVerification</t>
   </si>
   <si>
-    <t>0615</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>smsCode</t>
   </si>
   <si>
@@ -111,64 +107,87 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>blackBox</t>
-  </si>
-  <si>
     <t>idCard</t>
   </si>
   <si>
     <t>realName</t>
   </si>
   <si>
-    <t>bankCode</t>
-  </si>
-  <si>
-    <t>ICBC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>韩军超</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>bank_validCode</t>
-  </si>
-  <si>
-    <t>rechargeMoney</t>
-  </si>
-  <si>
     <t>payPassword</t>
   </si>
   <si>
     <t>payPassword_second</t>
   </si>
   <si>
-    <t>recharge_SmsCode</t>
-  </si>
-  <si>
     <t>withdrawalAmount</t>
   </si>
   <si>
+    <t>500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>environment</t>
+  </si>
+  <si>
+    <t>sit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${IdCardGenerator.generateUnUsedIdCardNumberByAge(20)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8888</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>888888</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rechargeSum</t>
+  </si>
+  <si>
+    <t>1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bankSmsCode</t>
+  </si>
+  <si>
+    <t>086554</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bankName</t>
+  </si>
+  <si>
+    <t>中国工商银行</t>
+    <rPh sb="1" eb="2">
+      <t>gogn'sh</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>yin'h</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>smsCode_recharge</t>
+  </si>
+  <si>
+    <t>0987777</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>it7891234</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>500</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>environment</t>
-  </si>
-  <si>
-    <t>sit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>06150911</t>
+    <t>it7891234</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -519,10 +538,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V2"/>
+  <dimension ref="A1:U2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="S2" sqref="S2"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -534,27 +553,29 @@
     <col min="6" max="6" width="17" customWidth="1"/>
     <col min="7" max="7" width="10.6640625" customWidth="1"/>
     <col min="8" max="8" width="10.5" customWidth="1"/>
-    <col min="9" max="11" width="13.5" customWidth="1"/>
-    <col min="12" max="12" width="44.6640625" customWidth="1"/>
-    <col min="13" max="14" width="13.1640625" customWidth="1"/>
-    <col min="15" max="17" width="14.1640625" customWidth="1"/>
-    <col min="18" max="18" width="17.1640625" customWidth="1"/>
-    <col min="19" max="19" width="19.1640625" customWidth="1"/>
-    <col min="20" max="20" width="18.33203125" customWidth="1"/>
+    <col min="9" max="9" width="56.1640625" customWidth="1"/>
+    <col min="10" max="11" width="13.5" customWidth="1"/>
+    <col min="12" max="12" width="20.1640625" customWidth="1"/>
+    <col min="13" max="14" width="13.5" customWidth="1"/>
+    <col min="15" max="15" width="44.6640625" customWidth="1"/>
+    <col min="16" max="16" width="13.1640625" customWidth="1"/>
+    <col min="17" max="17" width="14.1640625" customWidth="1"/>
+    <col min="18" max="18" width="22" customWidth="1"/>
+    <col min="19" max="19" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" t="s">
         <v>18</v>
       </c>
-      <c r="C1" t="s">
-        <v>19</v>
-      </c>
       <c r="D1" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="E1" t="s">
         <v>7</v>
@@ -563,114 +584,110 @@
         <v>11</v>
       </c>
       <c r="G1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H1" t="s">
         <v>8</v>
       </c>
       <c r="I1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" t="s">
         <v>21</v>
-      </c>
-      <c r="J1" t="s">
-        <v>22</v>
       </c>
       <c r="K1" t="s">
         <v>23</v>
       </c>
       <c r="L1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N1" t="s">
+        <v>34</v>
+      </c>
+      <c r="O1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q1" t="s">
         <v>14</v>
       </c>
-      <c r="M1" t="s">
-        <v>24</v>
-      </c>
-      <c r="N1" t="s">
-        <v>27</v>
-      </c>
-      <c r="O1" t="s">
-        <v>15</v>
-      </c>
-      <c r="P1" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>29</v>
-      </c>
       <c r="R1" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="S1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="T1" t="s">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="U1" t="s">
-        <v>2</v>
-      </c>
-      <c r="V1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="1">
-        <v>9877</v>
-      </c>
-      <c r="J2" s="1"/>
+      <c r="I2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="K2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="S2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="L2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="N2" s="1">
-        <v>615</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="V2" t="s">
+      <c r="U2" t="s">
         <v>6</v>
       </c>
     </row>

--- a/src/main/resources/TestData/com/nonobank/apps/testcase/nonobankge/withdraw/Withdraw.xlsx
+++ b/src/main/resources/TestData/com/nonobank/apps/testcase/nonobankge/withdraw/Withdraw.xlsx
@@ -70,10 +70,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>${UserInfoUtils.getUnregisterMobile()}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>pictureVerification</t>
   </si>
   <si>
@@ -131,10 +127,6 @@
   </si>
   <si>
     <t>environment</t>
-  </si>
-  <si>
-    <t>sit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>${IdCardGenerator.generateUnUsedIdCardNumberByAge(20)}</t>
@@ -188,6 +180,14 @@
   </si>
   <si>
     <t>it7891234</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${EnvUtils.getEnv()}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${MobileUtil.getUnRegisterMobile()}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -540,15 +540,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="14.1640625" customWidth="1"/>
     <col min="3" max="3" width="21.33203125" customWidth="1"/>
-    <col min="4" max="4" width="13.5" customWidth="1"/>
+    <col min="4" max="4" width="23.1640625" customWidth="1"/>
     <col min="5" max="5" width="31.1640625" customWidth="1"/>
     <col min="6" max="6" width="17" customWidth="1"/>
     <col min="7" max="7" width="10.6640625" customWidth="1"/>
@@ -569,58 +569,58 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
-        <v>18</v>
-      </c>
       <c r="D1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E1" t="s">
         <v>7</v>
       </c>
       <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
         <v>11</v>
-      </c>
-      <c r="G1" t="s">
-        <v>12</v>
       </c>
       <c r="H1" t="s">
         <v>8</v>
       </c>
       <c r="I1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" t="s">
         <v>20</v>
       </c>
-      <c r="J1" t="s">
-        <v>21</v>
-      </c>
       <c r="K1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1" t="s">
         <v>23</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>13</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
         <v>24</v>
-      </c>
-      <c r="M1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N1" t="s">
-        <v>34</v>
-      </c>
-      <c r="O1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>14</v>
-      </c>
-      <c r="R1" t="s">
-        <v>38</v>
-      </c>
-      <c r="S1" t="s">
-        <v>25</v>
       </c>
       <c r="T1" t="s">
         <v>2</v>
@@ -634,58 +634,58 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="G2" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="M2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="O2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="Q2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="S2" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="U2" t="s">
         <v>6</v>
